--- a/reports/timesheet.xlsx
+++ b/reports/timesheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tenis\Desktop\Data_Projects\SEKI\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB0185A1-1BC2-4017-8262-4AB0E9C1E9FB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F314A45-CECE-4A7E-9234-1DB7A1C8E129}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14303" yWindow="-3533" windowWidth="24495" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>Time Spent (hrs)</t>
+  </si>
+  <si>
+    <t>creating the edgedataset</t>
   </si>
 </sst>
 </file>
@@ -358,10 +361,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -404,6 +407,17 @@
         <v>2</v>
       </c>
     </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>44297</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/reports/timesheet.xlsx
+++ b/reports/timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tenis\Desktop\Data_Projects\SEKI\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F314A45-CECE-4A7E-9234-1DB7A1C8E129}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16720F9E-FBDE-4835-84A6-B4E2C3D2C813}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
